--- a/Spreadsheets/Rep_LastMonth_Customers.xlsx
+++ b/Spreadsheets/Rep_LastMonth_Customers.xlsx
@@ -8,6 +8,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 2025" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar 2025" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apr 2025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May 2025" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jun 2025" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jul 2025" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,8 +22,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -79,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -88,7 +92,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,7 +1354,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>45719</v>
       </c>
       <c r="F2" t="n">
@@ -1380,7 +1385,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>45723</v>
       </c>
       <c r="F3" t="n">
@@ -1411,7 +1416,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>45720</v>
       </c>
       <c r="F4" t="n">
@@ -1442,7 +1447,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>45717</v>
       </c>
       <c r="F5" t="n">
@@ -1473,7 +1478,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>45720</v>
       </c>
       <c r="F6" t="n">
@@ -1504,7 +1509,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>45720</v>
       </c>
       <c r="F7" t="n">
@@ -1535,7 +1540,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>45744</v>
       </c>
       <c r="F8" t="n">
@@ -1566,7 +1571,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>45717</v>
       </c>
       <c r="F9" t="n">
@@ -1597,7 +1602,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>45723</v>
       </c>
       <c r="F10" t="n">
@@ -1628,7 +1633,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>45721</v>
       </c>
       <c r="F11" t="n">
@@ -1659,7 +1664,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>45733</v>
       </c>
       <c r="F12" t="n">
@@ -1690,7 +1695,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>45721</v>
       </c>
       <c r="F13" t="n">
@@ -1721,7 +1726,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>45723</v>
       </c>
       <c r="F14" t="n">
@@ -1752,7 +1757,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>45734</v>
       </c>
       <c r="F15" t="n">
@@ -1783,7 +1788,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>45722</v>
       </c>
       <c r="F16" t="n">
@@ -1814,7 +1819,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>45733</v>
       </c>
       <c r="F17" t="n">
@@ -1845,7 +1850,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>45726</v>
       </c>
       <c r="F18" t="n">
@@ -1876,7 +1881,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>45720</v>
       </c>
       <c r="F19" t="n">
@@ -1907,7 +1912,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>45735</v>
       </c>
       <c r="F20" t="n">
@@ -1938,7 +1943,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>45742</v>
       </c>
       <c r="F21" t="n">
@@ -1969,7 +1974,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>45744</v>
       </c>
       <c r="F22" t="n">
@@ -2000,7 +2005,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <v>45726</v>
       </c>
       <c r="F23" t="n">
@@ -2031,7 +2036,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="5" t="n">
         <v>45720</v>
       </c>
       <c r="F24" t="n">
@@ -2062,7 +2067,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <v>45738</v>
       </c>
       <c r="F25" t="n">
@@ -2093,7 +2098,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="5" t="n">
         <v>45738</v>
       </c>
       <c r="F26" t="n">
@@ -2124,7 +2129,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="5" t="n">
         <v>45742</v>
       </c>
       <c r="F27" t="n">
@@ -2155,7 +2160,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="5" t="n">
         <v>45720</v>
       </c>
       <c r="F28" t="n">
@@ -2186,7 +2191,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="5" t="n">
         <v>45721</v>
       </c>
       <c r="F29" t="n">
@@ -2217,7 +2222,7 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="5" t="n">
         <v>45733</v>
       </c>
       <c r="F30" t="n">
@@ -2248,13 +2253,3802 @@
           <t>Mar 2025</t>
         </is>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="5" t="n">
         <v>45727</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Month_Year</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jhunjhunwala</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9979366815</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A-1002, Rajhans Cosmic, Vesu</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45750</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pallvi Agrawal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9624822004</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B-601, Emotion, Expression, near shyam mandir, Vesu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45764</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paras Shah</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9712925780</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D-801, Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45750</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mayank tyagi</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9891976976</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B1002 sarmya apartment opp terapanth citilight</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45751</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Deepak bhai</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9824144884</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A-501, The Evolution</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45751</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mayur Shah</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9377666220</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>G-502. Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>45751</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Niriksha Daga</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9099016668</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>S-2,901, Happy Excelencia, Vesu</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>45764</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Yash bagre</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7574038858</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A-1303, Royal Regency, Vesu</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Isha Raathi</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8094146999</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B-901, Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>45751</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jatanlal Bothra</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9426153129</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D 801 Devraj Residency Near Om Turner</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>45766</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Aashish Agrawal</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9898183338</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rajhans Grandeza, Vesu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>45773</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sonika Singhania</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9958286660</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>45754</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>samir sam</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9925347101</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>aagam arcade s u s 96 Vesu</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>45751</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Shraddha Jain</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8347933800</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sangini Solitaire</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>45755</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sushma Jain</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8000323093</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A-701.Dream Palace, near dream heritage, Vesu</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>45770</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Priyanka Kothari</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9099639469</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B-401.Sapphire Court, Vesu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>45766</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hotel Global</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9662562135</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sun Arcade, Vesu, Surat</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>45752</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tanmay sethia</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6002632768</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>a 1103 nandan van vesu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>45750</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Vidhi</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9265622687</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B-102, The Atmosphere</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mapple Leaf A-302</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8799474449</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A-302, Mapple Leaf Apartment, Dumas Road</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>45768</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Stuti Doshi</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9824516012</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>D-204, Jolly Residency, Vesu</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>45768</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Vivek Ahuja</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9898729181</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>G-2,Cannon Street 1, Vesu</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>45770</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Disha</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9619060360</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>D-401, Happy Elanza, Vesu</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>45750</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Radha</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9727218812</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20-B, Samarth Bunglows, Vesu</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>45776</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiragbhai</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9879276468</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D-602, Union Residency, Vesu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>45776</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sohelbhai</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7041284933</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>limbayt</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>45751</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Samir Bhai</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9537748909</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cannon Street 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>45752</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Roshni</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8980084840</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>E-604, Jolly Residency, Vesu</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>45764</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rishi</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7873944244</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20, Siddhi Row House, Vesu</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>45775</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Aashay Shah</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8238593901</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A-1 , 202, Sanskruti Apt, Besides Rajhans Theatre, Piplod, Surat,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>45751</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Month_Year</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Priyanka Kothari</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9099639469</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B-401.Sapphire Court, Vesu</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jhunjhunwala</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9979366815</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A-1002, Rajhans Cosmic, Vesu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45779</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Roshni</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8980084840</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-604, Jolly Residency, Vesu</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45796</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Deepak bhai</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9824144884</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A-501, The Evolution</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Vivek Ahuja</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9898729181</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>G-2,Cannon Street 1, Vesu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45804</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aashish Agrawal</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9898183338</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rajhans Grandeza, Vesu</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>45782</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Paras Shah</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9712925780</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D-801, Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mayank tyagi</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9891976976</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B1002 sarmya apartment opp terapanth citilight</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>45784</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mapple Leaf A-302</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8799474449</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A-302, Mapple Leaf Apartment, Dumas Road</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>45780</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jatanlal Bothra</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9426153129</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D 801 Devraj Residency Near Om Turner</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>45783</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tanmay sethia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6002632768</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>a 1103 nandan van vesu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>samir sam</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9925347101</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>aagam arcade s u s 96 Vesu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>45785</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pallvi Agrawal</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9624822004</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B-601, Emotion, Expression, near shyam mandir, Vesu</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>45782</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Yash bagre</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7574038858</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A-1303, Royal Regency, Vesu</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>45787</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Niriksha Daga</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9099016668</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>S-2,901, Happy Excelencia, Vesu</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>45793</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Stuti Doshi</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9824516012</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D-204, Jolly Residency, Vesu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>45803</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shraddha Jain</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8347933800</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sangini Solitaire</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>45796</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Isha Raathi</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8094146999</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B-901, Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>45784</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Leher Thakur</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9624004792</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C-201, Aakash Evergreen, Vesu</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>45790</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Aakash Damani</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7434032409</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Hotel Shreeji Vatika, Piplod, Dumas Road</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>45796</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiragbhai</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9879276468</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>D-602, Union Residency, Vesu</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>45790</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Nikko</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9879542032</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Shubh Enclave</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>45806</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hotel Global</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9662562135</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sun Arcade, Vesu, Surat</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>45789</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Vidhi</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9265622687</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B-102, The Atmosphere</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>45793</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mayur Shah</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9377666220</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>G-502. Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>45784</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Aashita Rathi</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9322721744</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B-702, White Wings Torrence, Vesu,Surat</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>45794</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Samir Bhai</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9537748909</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cannon Street 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>45797</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Month_Year</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Leher Thakur</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9624004792</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C-201, Aakash Evergreen, Vesu</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45811</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jhunjhunwala</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9979366815</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A-1002, Rajhans Cosmic, Vesu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45810</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>anupama</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9016242079</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jolly H601</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45812</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Niriksha Daga</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9099016668</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S-2,901, Happy Excelencia, Vesu</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45812</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pallvi Agrawal</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9624822004</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B-601, Emotion, Expression, near shyam mandir, Vesu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45810</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Paras Shah</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9712925780</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D-801, Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>45812</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Yash bagre</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7574038858</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A-1303, Royal Regency, Vesu</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>45829</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mayank tyagi</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9891976976</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B1002 sarmya apartment opp terapanth citilight</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>45810</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Samir</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9825382832</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>I-736, Star Galaxy, Vesu</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>45810</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>k.p</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9012406659</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>45811</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Isha Raathi</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8094146999</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B-901, Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>45811</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Priyanka Kothari</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9099639469</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B-401.Sapphire Court, Vesu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nikko</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9879542032</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Shubh Enclave</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jatanlal Bothra</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9426153129</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D 801 Devraj Residency Near Om Turner</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>45825</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shraddha Jain</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8347933800</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sangini Solitaire</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>45819</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>gourav bagaria</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6291673385</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A/B3 green victory</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tanmay sethia</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6002632768</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>a 1103 nandan van vesu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>45833</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Roshni</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8980084840</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E-604, Jolly Residency, Vesu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>45819</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Samir Bhai</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9537748909</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cannon Street 1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Deepak bhai</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9824144884</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A-501, The Evolution</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>45813</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Vivek Ahuja</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9898729181</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>G-2,Cannon Street 1, Vesu</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>45811</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>shiva suwalka</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7081797878</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Vesu aagam hotel nova 306</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>45813</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>om studio</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9898022113</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Vesu cannon street om studio</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>babita</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8780331212</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>rajhans sinfoniya B805</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Manisha Dalmia</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9824119894</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>45810</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Month_Year</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jhunjhunwala</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9979366815</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A-1002, Rajhans Cosmic, Vesu</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45842</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jenish doshi</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9825108845</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45856</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>k.p</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9012406659</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45862</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mayank tyagi</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9891976976</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B1002 sarmya apartment opp terapanth citilight</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45841</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Isha Raathi</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8094146999</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B-901, Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45845</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>saloni</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9687422277</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>subh anclev A1004</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>45842</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Leher Thakur</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9624004792</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C-201, Aakash Evergreen, Vesu</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>45845</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Deepak bhai</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9824144884</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A-501, The Evolution</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>45841</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Niriksha Daga</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9099016668</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>S-2,901, Happy Excelencia, Vesu</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>45850</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nikko</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9879542032</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Shubh Enclave</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>45842</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Paras Shah</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9712925780</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D-801, Flourence, Vesu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>45841</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>anupama</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9016242079</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jolly H601</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>45845</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jatanlal Bothra</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9426153129</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D 801 Devraj Residency Near Om Turner</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>45841</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pallvi Agrawal</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9624822004</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B-601, Emotion, Expression, near shyam mandir, Vesu</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>gourav bagaria</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6291673385</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A/B3 green victory</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>45856</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Roshni</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8980084840</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>E-604, Jolly Residency, Vesu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>45845</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>zota</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8980878542</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>45843</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Samir Bhai</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9537748909</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cannon Street 1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>45845</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tanmay sethia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6002632768</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>a 1103 nandan van vesu</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>45856</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Yash bagre</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7574038858</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A-1303, Royal Regency, Vesu</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>hitesh kachhani</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9998585310</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vesu canon street</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>45846</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>om studio</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9898022113</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Vesu cannon street om studio</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>45859</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8306540657</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>d 301 sangini vedanta</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>45856</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Abhilasa Agrawal</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9925234690</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Nalanda</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>45853</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>jinali</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9555965750</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vesu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>45846</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Samir</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9825382832</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>I-736, Star Galaxy, Vesu</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>45869</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sneha juwani</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9638222737</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fiona A401</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>45847</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Priyanka Kothari</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9099639469</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B-401.Sapphire Court, Vesu</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sourav</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9974173433</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>jolly A1304</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>45846</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vashar preet</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9898169655</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Vesu B2 501 celebrity greens</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>45860</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mitesh bhai</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9537890657</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>dumas</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Priya Agrawal</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7990567543</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Vesu</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>45848</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>babita</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8780331212</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>rajhans sinfoniya B805</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>45846</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
